--- a/EngineTesting/Win32/StaticDebugWindows/Resource/CSVConfigure/Chapter.xlsx
+++ b/EngineTesting/Win32/StaticDebugWindows/Resource/CSVConfigure/Chapter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <t>[ 1 - 5 )</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>下一关ID</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>下一关Id</t>
   </si>
   <si>
     <t>过关奖励</t>
@@ -61,7 +61,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>nextID</t>
+    <t>nextId</t>
   </si>
   <si>
     <t>reward</t>
@@ -153,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -168,75 +168,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -258,54 +287,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,17 +514,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,9 +555,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,26 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/EngineTesting/Win32/StaticDebugWindows/Resource/CSVConfigure/Chapter.xlsx
+++ b/EngineTesting/Win32/StaticDebugWindows/Resource/CSVConfigure/Chapter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="608">
   <si>
     <t>@default</t>
   </si>
@@ -146,6 +146,1698 @@
   </si>
   <si>
     <t>2|5|6|12</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.1|1.8</t>
+  </si>
+  <si>
+    <t>2|5|6|13</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.1|1.9</t>
+  </si>
+  <si>
+    <t>2|5|6|14</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.1|1.10</t>
+  </si>
+  <si>
+    <t>2|5|6|15</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.1|1.11</t>
+  </si>
+  <si>
+    <t>2|5|6|16</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.1|1.12</t>
+  </si>
+  <si>
+    <t>2|5|6|17</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.1|1.13</t>
+  </si>
+  <si>
+    <t>2|5|6|18</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>1.1|1.14</t>
+  </si>
+  <si>
+    <t>2|5|6|19</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.1|1.15</t>
+  </si>
+  <si>
+    <t>2|5|6|20</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>1.1|1.16</t>
+  </si>
+  <si>
+    <t>2|5|6|21</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.1|1.17</t>
+  </si>
+  <si>
+    <t>2|5|6|22</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.1|1.18</t>
+  </si>
+  <si>
+    <t>2|5|6|23</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.1|1.19</t>
+  </si>
+  <si>
+    <t>2|5|6|24</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>1.1|1.20</t>
+  </si>
+  <si>
+    <t>2|5|6|25</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.1|1.21</t>
+  </si>
+  <si>
+    <t>2|5|6|26</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.1|1.22</t>
+  </si>
+  <si>
+    <t>2|5|6|27</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>1.1|1.23</t>
+  </si>
+  <si>
+    <t>2|5|6|28</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>1.1|1.24</t>
+  </si>
+  <si>
+    <t>2|5|6|29</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.1|1.25</t>
+  </si>
+  <si>
+    <t>2|5|6|30</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.1|1.26</t>
+  </si>
+  <si>
+    <t>2|5|6|31</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>1.1|1.27</t>
+  </si>
+  <si>
+    <t>2|5|6|32</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1.1|1.28</t>
+  </si>
+  <si>
+    <t>2|5|6|33</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.1|1.29</t>
+  </si>
+  <si>
+    <t>2|5|6|34</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.1|1.30</t>
+  </si>
+  <si>
+    <t>2|5|6|35</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.1|1.31</t>
+  </si>
+  <si>
+    <t>2|5|6|36</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.1|1.32</t>
+  </si>
+  <si>
+    <t>2|5|6|37</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>1.1|1.33</t>
+  </si>
+  <si>
+    <t>2|5|6|38</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>1.1|1.34</t>
+  </si>
+  <si>
+    <t>2|5|6|39</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.1|1.35</t>
+  </si>
+  <si>
+    <t>2|5|6|40</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>1.1|1.36</t>
+  </si>
+  <si>
+    <t>2|5|6|41</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.1|1.37</t>
+  </si>
+  <si>
+    <t>2|5|6|42</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.1|1.38</t>
+  </si>
+  <si>
+    <t>2|5|6|43</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.1|1.39</t>
+  </si>
+  <si>
+    <t>2|5|6|44</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.1|1.40</t>
+  </si>
+  <si>
+    <t>2|5|6|45</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>1.1|1.41</t>
+  </si>
+  <si>
+    <t>2|5|6|46</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>1.1|1.42</t>
+  </si>
+  <si>
+    <t>2|5|6|47</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1.1|1.43</t>
+  </si>
+  <si>
+    <t>2|5|6|48</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>1.1|1.44</t>
+  </si>
+  <si>
+    <t>2|5|6|49</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.1|1.45</t>
+  </si>
+  <si>
+    <t>2|5|6|50</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.1|1.46</t>
+  </si>
+  <si>
+    <t>2|5|6|51</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.1|1.47</t>
+  </si>
+  <si>
+    <t>2|5|6|52</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.1|1.48</t>
+  </si>
+  <si>
+    <t>2|5|6|53</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>1.1|1.49</t>
+  </si>
+  <si>
+    <t>2|5|6|54</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>1.1|1.50</t>
+  </si>
+  <si>
+    <t>2|5|6|55</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.1|1.51</t>
+  </si>
+  <si>
+    <t>2|5|6|56</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.1|1.52</t>
+  </si>
+  <si>
+    <t>2|5|6|57</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.1|1.53</t>
+  </si>
+  <si>
+    <t>2|5|6|58</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>1.1|1.54</t>
+  </si>
+  <si>
+    <t>2|5|6|59</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>1.1|1.55</t>
+  </si>
+  <si>
+    <t>2|5|6|60</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.1|1.56</t>
+  </si>
+  <si>
+    <t>2|5|6|61</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.1|1.57</t>
+  </si>
+  <si>
+    <t>2|5|6|62</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.1|1.58</t>
+  </si>
+  <si>
+    <t>2|5|6|63</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.1|1.59</t>
+  </si>
+  <si>
+    <t>2|5|6|64</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>1.1|1.60</t>
+  </si>
+  <si>
+    <t>2|5|6|65</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>1.1|1.61</t>
+  </si>
+  <si>
+    <t>2|5|6|66</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>1.1|1.62</t>
+  </si>
+  <si>
+    <t>2|5|6|67</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>1.1|1.63</t>
+  </si>
+  <si>
+    <t>2|5|6|68</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>1.1|1.64</t>
+  </si>
+  <si>
+    <t>2|5|6|69</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>1.1|1.65</t>
+  </si>
+  <si>
+    <t>2|5|6|70</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.1|1.66</t>
+  </si>
+  <si>
+    <t>2|5|6|71</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.1|1.67</t>
+  </si>
+  <si>
+    <t>2|5|6|72</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>1.1|1.68</t>
+  </si>
+  <si>
+    <t>2|5|6|73</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>1.1|1.69</t>
+  </si>
+  <si>
+    <t>2|5|6|74</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>1.1|1.70</t>
+  </si>
+  <si>
+    <t>2|5|6|75</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.1|1.71</t>
+  </si>
+  <si>
+    <t>2|5|6|76</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>1.1|1.72</t>
+  </si>
+  <si>
+    <t>2|5|6|77</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>1.1|1.73</t>
+  </si>
+  <si>
+    <t>2|5|6|78</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>1.1|1.74</t>
+  </si>
+  <si>
+    <t>2|5|6|79</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>1.1|1.75</t>
+  </si>
+  <si>
+    <t>2|5|6|80</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.1|1.76</t>
+  </si>
+  <si>
+    <t>2|5|6|81</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>1.1|1.77</t>
+  </si>
+  <si>
+    <t>2|5|6|82</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>1.1|1.78</t>
+  </si>
+  <si>
+    <t>2|5|6|83</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.1|1.79</t>
+  </si>
+  <si>
+    <t>2|5|6|84</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>1.1|1.80</t>
+  </si>
+  <si>
+    <t>2|5|6|85</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.1|1.81</t>
+  </si>
+  <si>
+    <t>2|5|6|86</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>1.1|1.82</t>
+  </si>
+  <si>
+    <t>2|5|6|87</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>1.1|1.83</t>
+  </si>
+  <si>
+    <t>2|5|6|88</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>1.1|1.84</t>
+  </si>
+  <si>
+    <t>2|5|6|89</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>1.1|1.85</t>
+  </si>
+  <si>
+    <t>2|5|6|90</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>1.1|1.86</t>
+  </si>
+  <si>
+    <t>2|5|6|91</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>1.1|1.87</t>
+  </si>
+  <si>
+    <t>2|5|6|92</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>1.1|1.88</t>
+  </si>
+  <si>
+    <t>2|5|6|93</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>1.1|1.89</t>
+  </si>
+  <si>
+    <t>2|5|6|94</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>1.1|1.90</t>
+  </si>
+  <si>
+    <t>2|5|6|95</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>1.1|1.91</t>
+  </si>
+  <si>
+    <t>2|5|6|96</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>1.1|1.92</t>
+  </si>
+  <si>
+    <t>2|5|6|97</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1.1|1.93</t>
+  </si>
+  <si>
+    <t>2|5|6|98</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>1.1|1.94</t>
+  </si>
+  <si>
+    <t>2|5|6|99</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>1.1|1.95</t>
+  </si>
+  <si>
+    <t>2|5|6|100</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>1.1|1.96</t>
+  </si>
+  <si>
+    <t>2|5|6|101</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>1.1|1.97</t>
+  </si>
+  <si>
+    <t>2|5|6|102</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>1.1|1.98</t>
+  </si>
+  <si>
+    <t>2|5|6|103</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>1.1|1.99</t>
+  </si>
+  <si>
+    <t>2|5|6|104</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>1.1|1.100</t>
+  </si>
+  <si>
+    <t>2|5|6|105</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
+    <t>1.1|1.101</t>
+  </si>
+  <si>
+    <t>2|5|6|106</t>
+  </si>
+  <si>
+    <t>1.101</t>
+  </si>
+  <si>
+    <t>1.1|1.102</t>
+  </si>
+  <si>
+    <t>2|5|6|107</t>
+  </si>
+  <si>
+    <t>1.102</t>
+  </si>
+  <si>
+    <t>1.1|1.103</t>
+  </si>
+  <si>
+    <t>2|5|6|108</t>
+  </si>
+  <si>
+    <t>1.103</t>
+  </si>
+  <si>
+    <t>1.1|1.104</t>
+  </si>
+  <si>
+    <t>2|5|6|109</t>
+  </si>
+  <si>
+    <t>1.104</t>
+  </si>
+  <si>
+    <t>1.1|1.105</t>
+  </si>
+  <si>
+    <t>2|5|6|110</t>
+  </si>
+  <si>
+    <t>1.105</t>
+  </si>
+  <si>
+    <t>1.1|1.106</t>
+  </si>
+  <si>
+    <t>2|5|6|111</t>
+  </si>
+  <si>
+    <t>1.106</t>
+  </si>
+  <si>
+    <t>1.1|1.107</t>
+  </si>
+  <si>
+    <t>2|5|6|112</t>
+  </si>
+  <si>
+    <t>1.107</t>
+  </si>
+  <si>
+    <t>1.1|1.108</t>
+  </si>
+  <si>
+    <t>2|5|6|113</t>
+  </si>
+  <si>
+    <t>1.108</t>
+  </si>
+  <si>
+    <t>1.1|1.109</t>
+  </si>
+  <si>
+    <t>2|5|6|114</t>
+  </si>
+  <si>
+    <t>1.109</t>
+  </si>
+  <si>
+    <t>1.1|1.110</t>
+  </si>
+  <si>
+    <t>2|5|6|115</t>
+  </si>
+  <si>
+    <t>1.110</t>
+  </si>
+  <si>
+    <t>1.1|1.111</t>
+  </si>
+  <si>
+    <t>2|5|6|116</t>
+  </si>
+  <si>
+    <t>1.111</t>
+  </si>
+  <si>
+    <t>1.1|1.112</t>
+  </si>
+  <si>
+    <t>2|5|6|117</t>
+  </si>
+  <si>
+    <t>1.112</t>
+  </si>
+  <si>
+    <t>1.1|1.113</t>
+  </si>
+  <si>
+    <t>2|5|6|118</t>
+  </si>
+  <si>
+    <t>1.113</t>
+  </si>
+  <si>
+    <t>1.1|1.114</t>
+  </si>
+  <si>
+    <t>2|5|6|119</t>
+  </si>
+  <si>
+    <t>1.114</t>
+  </si>
+  <si>
+    <t>1.1|1.115</t>
+  </si>
+  <si>
+    <t>2|5|6|120</t>
+  </si>
+  <si>
+    <t>1.115</t>
+  </si>
+  <si>
+    <t>1.1|1.116</t>
+  </si>
+  <si>
+    <t>2|5|6|121</t>
+  </si>
+  <si>
+    <t>1.116</t>
+  </si>
+  <si>
+    <t>1.1|1.117</t>
+  </si>
+  <si>
+    <t>2|5|6|122</t>
+  </si>
+  <si>
+    <t>1.117</t>
+  </si>
+  <si>
+    <t>1.1|1.118</t>
+  </si>
+  <si>
+    <t>2|5|6|123</t>
+  </si>
+  <si>
+    <t>1.118</t>
+  </si>
+  <si>
+    <t>1.1|1.119</t>
+  </si>
+  <si>
+    <t>2|5|6|124</t>
+  </si>
+  <si>
+    <t>1.119</t>
+  </si>
+  <si>
+    <t>1.1|1.120</t>
+  </si>
+  <si>
+    <t>2|5|6|125</t>
+  </si>
+  <si>
+    <t>1.120</t>
+  </si>
+  <si>
+    <t>1.1|1.121</t>
+  </si>
+  <si>
+    <t>2|5|6|126</t>
+  </si>
+  <si>
+    <t>1.121</t>
+  </si>
+  <si>
+    <t>1.1|1.122</t>
+  </si>
+  <si>
+    <t>2|5|6|127</t>
+  </si>
+  <si>
+    <t>1.122</t>
+  </si>
+  <si>
+    <t>1.1|1.123</t>
+  </si>
+  <si>
+    <t>2|5|6|128</t>
+  </si>
+  <si>
+    <t>1.123</t>
+  </si>
+  <si>
+    <t>1.1|1.124</t>
+  </si>
+  <si>
+    <t>2|5|6|129</t>
+  </si>
+  <si>
+    <t>1.124</t>
+  </si>
+  <si>
+    <t>1.1|1.125</t>
+  </si>
+  <si>
+    <t>2|5|6|130</t>
+  </si>
+  <si>
+    <t>1.125</t>
+  </si>
+  <si>
+    <t>1.1|1.126</t>
+  </si>
+  <si>
+    <t>2|5|6|131</t>
+  </si>
+  <si>
+    <t>1.126</t>
+  </si>
+  <si>
+    <t>1.1|1.127</t>
+  </si>
+  <si>
+    <t>2|5|6|132</t>
+  </si>
+  <si>
+    <t>1.127</t>
+  </si>
+  <si>
+    <t>1.1|1.128</t>
+  </si>
+  <si>
+    <t>2|5|6|133</t>
+  </si>
+  <si>
+    <t>1.128</t>
+  </si>
+  <si>
+    <t>1.1|1.129</t>
+  </si>
+  <si>
+    <t>2|5|6|134</t>
+  </si>
+  <si>
+    <t>1.129</t>
+  </si>
+  <si>
+    <t>1.1|1.130</t>
+  </si>
+  <si>
+    <t>2|5|6|135</t>
+  </si>
+  <si>
+    <t>1.130</t>
+  </si>
+  <si>
+    <t>1.1|1.131</t>
+  </si>
+  <si>
+    <t>2|5|6|136</t>
+  </si>
+  <si>
+    <t>1.131</t>
+  </si>
+  <si>
+    <t>1.1|1.132</t>
+  </si>
+  <si>
+    <t>2|5|6|137</t>
+  </si>
+  <si>
+    <t>1.132</t>
+  </si>
+  <si>
+    <t>1.1|1.133</t>
+  </si>
+  <si>
+    <t>2|5|6|138</t>
+  </si>
+  <si>
+    <t>1.133</t>
+  </si>
+  <si>
+    <t>1.1|1.134</t>
+  </si>
+  <si>
+    <t>2|5|6|139</t>
+  </si>
+  <si>
+    <t>1.134</t>
+  </si>
+  <si>
+    <t>1.1|1.135</t>
+  </si>
+  <si>
+    <t>2|5|6|140</t>
+  </si>
+  <si>
+    <t>1.135</t>
+  </si>
+  <si>
+    <t>1.1|1.136</t>
+  </si>
+  <si>
+    <t>2|5|6|141</t>
+  </si>
+  <si>
+    <t>1.136</t>
+  </si>
+  <si>
+    <t>1.1|1.137</t>
+  </si>
+  <si>
+    <t>2|5|6|142</t>
+  </si>
+  <si>
+    <t>1.137</t>
+  </si>
+  <si>
+    <t>1.1|1.138</t>
+  </si>
+  <si>
+    <t>2|5|6|143</t>
+  </si>
+  <si>
+    <t>1.138</t>
+  </si>
+  <si>
+    <t>1.1|1.139</t>
+  </si>
+  <si>
+    <t>2|5|6|144</t>
+  </si>
+  <si>
+    <t>1.139</t>
+  </si>
+  <si>
+    <t>1.1|1.140</t>
+  </si>
+  <si>
+    <t>2|5|6|145</t>
+  </si>
+  <si>
+    <t>1.140</t>
+  </si>
+  <si>
+    <t>1.1|1.141</t>
+  </si>
+  <si>
+    <t>2|5|6|146</t>
+  </si>
+  <si>
+    <t>1.141</t>
+  </si>
+  <si>
+    <t>1.1|1.142</t>
+  </si>
+  <si>
+    <t>2|5|6|147</t>
+  </si>
+  <si>
+    <t>1.142</t>
+  </si>
+  <si>
+    <t>1.1|1.143</t>
+  </si>
+  <si>
+    <t>2|5|6|148</t>
+  </si>
+  <si>
+    <t>1.143</t>
+  </si>
+  <si>
+    <t>1.1|1.144</t>
+  </si>
+  <si>
+    <t>2|5|6|149</t>
+  </si>
+  <si>
+    <t>1.144</t>
+  </si>
+  <si>
+    <t>1.1|1.145</t>
+  </si>
+  <si>
+    <t>2|5|6|150</t>
+  </si>
+  <si>
+    <t>1.145</t>
+  </si>
+  <si>
+    <t>1.1|1.146</t>
+  </si>
+  <si>
+    <t>2|5|6|151</t>
+  </si>
+  <si>
+    <t>1.146</t>
+  </si>
+  <si>
+    <t>1.1|1.147</t>
+  </si>
+  <si>
+    <t>2|5|6|152</t>
+  </si>
+  <si>
+    <t>1.147</t>
+  </si>
+  <si>
+    <t>1.1|1.148</t>
+  </si>
+  <si>
+    <t>2|5|6|153</t>
+  </si>
+  <si>
+    <t>1.148</t>
+  </si>
+  <si>
+    <t>1.1|1.149</t>
+  </si>
+  <si>
+    <t>2|5|6|154</t>
+  </si>
+  <si>
+    <t>1.149</t>
+  </si>
+  <si>
+    <t>1.1|1.150</t>
+  </si>
+  <si>
+    <t>2|5|6|155</t>
+  </si>
+  <si>
+    <t>1.150</t>
+  </si>
+  <si>
+    <t>1.1|1.151</t>
+  </si>
+  <si>
+    <t>2|5|6|156</t>
+  </si>
+  <si>
+    <t>1.151</t>
+  </si>
+  <si>
+    <t>1.1|1.152</t>
+  </si>
+  <si>
+    <t>2|5|6|157</t>
+  </si>
+  <si>
+    <t>1.152</t>
+  </si>
+  <si>
+    <t>1.1|1.153</t>
+  </si>
+  <si>
+    <t>2|5|6|158</t>
+  </si>
+  <si>
+    <t>1.153</t>
+  </si>
+  <si>
+    <t>1.1|1.154</t>
+  </si>
+  <si>
+    <t>2|5|6|159</t>
+  </si>
+  <si>
+    <t>1.154</t>
+  </si>
+  <si>
+    <t>1.1|1.155</t>
+  </si>
+  <si>
+    <t>2|5|6|160</t>
+  </si>
+  <si>
+    <t>1.155</t>
+  </si>
+  <si>
+    <t>1.1|1.156</t>
+  </si>
+  <si>
+    <t>2|5|6|161</t>
+  </si>
+  <si>
+    <t>1.156</t>
+  </si>
+  <si>
+    <t>1.1|1.157</t>
+  </si>
+  <si>
+    <t>2|5|6|162</t>
+  </si>
+  <si>
+    <t>1.157</t>
+  </si>
+  <si>
+    <t>1.1|1.158</t>
+  </si>
+  <si>
+    <t>2|5|6|163</t>
+  </si>
+  <si>
+    <t>1.158</t>
+  </si>
+  <si>
+    <t>1.1|1.159</t>
+  </si>
+  <si>
+    <t>2|5|6|164</t>
+  </si>
+  <si>
+    <t>1.159</t>
+  </si>
+  <si>
+    <t>1.1|1.160</t>
+  </si>
+  <si>
+    <t>2|5|6|165</t>
+  </si>
+  <si>
+    <t>1.160</t>
+  </si>
+  <si>
+    <t>1.1|1.161</t>
+  </si>
+  <si>
+    <t>2|5|6|166</t>
+  </si>
+  <si>
+    <t>1.161</t>
+  </si>
+  <si>
+    <t>1.1|1.162</t>
+  </si>
+  <si>
+    <t>2|5|6|167</t>
+  </si>
+  <si>
+    <t>1.162</t>
+  </si>
+  <si>
+    <t>1.1|1.163</t>
+  </si>
+  <si>
+    <t>2|5|6|168</t>
+  </si>
+  <si>
+    <t>1.163</t>
+  </si>
+  <si>
+    <t>1.1|1.164</t>
+  </si>
+  <si>
+    <t>2|5|6|169</t>
+  </si>
+  <si>
+    <t>1.164</t>
+  </si>
+  <si>
+    <t>1.1|1.165</t>
+  </si>
+  <si>
+    <t>2|5|6|170</t>
+  </si>
+  <si>
+    <t>1.165</t>
+  </si>
+  <si>
+    <t>1.1|1.166</t>
+  </si>
+  <si>
+    <t>2|5|6|171</t>
+  </si>
+  <si>
+    <t>1.166</t>
+  </si>
+  <si>
+    <t>1.1|1.167</t>
+  </si>
+  <si>
+    <t>2|5|6|172</t>
+  </si>
+  <si>
+    <t>1.167</t>
+  </si>
+  <si>
+    <t>1.1|1.168</t>
+  </si>
+  <si>
+    <t>2|5|6|173</t>
+  </si>
+  <si>
+    <t>1.168</t>
+  </si>
+  <si>
+    <t>1.1|1.169</t>
+  </si>
+  <si>
+    <t>2|5|6|174</t>
+  </si>
+  <si>
+    <t>1.169</t>
+  </si>
+  <si>
+    <t>1.1|1.170</t>
+  </si>
+  <si>
+    <t>2|5|6|175</t>
+  </si>
+  <si>
+    <t>1.170</t>
+  </si>
+  <si>
+    <t>1.1|1.171</t>
+  </si>
+  <si>
+    <t>2|5|6|176</t>
+  </si>
+  <si>
+    <t>1.171</t>
+  </si>
+  <si>
+    <t>1.1|1.172</t>
+  </si>
+  <si>
+    <t>2|5|6|177</t>
+  </si>
+  <si>
+    <t>1.172</t>
+  </si>
+  <si>
+    <t>1.1|1.173</t>
+  </si>
+  <si>
+    <t>2|5|6|178</t>
+  </si>
+  <si>
+    <t>1.173</t>
+  </si>
+  <si>
+    <t>1.1|1.174</t>
+  </si>
+  <si>
+    <t>2|5|6|179</t>
+  </si>
+  <si>
+    <t>1.174</t>
+  </si>
+  <si>
+    <t>1.1|1.175</t>
+  </si>
+  <si>
+    <t>2|5|6|180</t>
+  </si>
+  <si>
+    <t>1.175</t>
+  </si>
+  <si>
+    <t>1.1|1.176</t>
+  </si>
+  <si>
+    <t>2|5|6|181</t>
+  </si>
+  <si>
+    <t>1.176</t>
+  </si>
+  <si>
+    <t>1.1|1.177</t>
+  </si>
+  <si>
+    <t>2|5|6|182</t>
+  </si>
+  <si>
+    <t>1.177</t>
+  </si>
+  <si>
+    <t>1.1|1.178</t>
+  </si>
+  <si>
+    <t>2|5|6|183</t>
+  </si>
+  <si>
+    <t>1.178</t>
+  </si>
+  <si>
+    <t>1.1|1.179</t>
+  </si>
+  <si>
+    <t>2|5|6|184</t>
+  </si>
+  <si>
+    <t>1.179</t>
+  </si>
+  <si>
+    <t>1.1|1.180</t>
+  </si>
+  <si>
+    <t>2|5|6|185</t>
+  </si>
+  <si>
+    <t>1.180</t>
+  </si>
+  <si>
+    <t>1.1|1.181</t>
+  </si>
+  <si>
+    <t>2|5|6|186</t>
+  </si>
+  <si>
+    <t>1.181</t>
+  </si>
+  <si>
+    <t>1.1|1.182</t>
+  </si>
+  <si>
+    <t>2|5|6|187</t>
+  </si>
+  <si>
+    <t>1.182</t>
+  </si>
+  <si>
+    <t>1.1|1.183</t>
+  </si>
+  <si>
+    <t>2|5|6|188</t>
+  </si>
+  <si>
+    <t>1.183</t>
+  </si>
+  <si>
+    <t>1.1|1.184</t>
+  </si>
+  <si>
+    <t>2|5|6|189</t>
+  </si>
+  <si>
+    <t>1.184</t>
+  </si>
+  <si>
+    <t>1.1|1.185</t>
+  </si>
+  <si>
+    <t>2|5|6|190</t>
+  </si>
+  <si>
+    <t>1.185</t>
+  </si>
+  <si>
+    <t>1.1|1.186</t>
+  </si>
+  <si>
+    <t>2|5|6|191</t>
+  </si>
+  <si>
+    <t>1.186</t>
+  </si>
+  <si>
+    <t>1.1|1.187</t>
+  </si>
+  <si>
+    <t>2|5|6|192</t>
+  </si>
+  <si>
+    <t>1.187</t>
+  </si>
+  <si>
+    <t>1.1|1.188</t>
+  </si>
+  <si>
+    <t>2|5|6|193</t>
+  </si>
+  <si>
+    <t>1.188</t>
+  </si>
+  <si>
+    <t>1.1|1.189</t>
+  </si>
+  <si>
+    <t>2|5|6|194</t>
+  </si>
+  <si>
+    <t>1.189</t>
+  </si>
+  <si>
+    <t>1.1|1.190</t>
+  </si>
+  <si>
+    <t>2|5|6|195</t>
+  </si>
+  <si>
+    <t>1.190</t>
+  </si>
+  <si>
+    <t>1.1|1.191</t>
+  </si>
+  <si>
+    <t>2|5|6|196</t>
+  </si>
+  <si>
+    <t>1.191</t>
+  </si>
+  <si>
+    <t>1.1|1.192</t>
+  </si>
+  <si>
+    <t>2|5|6|197</t>
+  </si>
+  <si>
+    <t>1.192</t>
+  </si>
+  <si>
+    <t>1.1|1.193</t>
+  </si>
+  <si>
+    <t>2|5|6|198</t>
+  </si>
+  <si>
+    <t>1.193</t>
+  </si>
+  <si>
+    <t>1.1|1.194</t>
+  </si>
+  <si>
+    <t>2|5|6|199</t>
+  </si>
+  <si>
+    <t>1.194</t>
+  </si>
+  <si>
+    <t>1.1|1.195</t>
+  </si>
+  <si>
+    <t>2|5|6|200</t>
   </si>
 </sst>
 </file>
@@ -153,10 +1845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,76 +1860,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,21 +1874,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -287,11 +1926,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +1965,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,7 +2012,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,19 +2096,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,85 +2180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,61 +2192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,11 +2206,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,52 +2236,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +2268,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +2311,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +2323,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,17 +2817,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6296296296296" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -1357,6 +3049,4330 @@
         <v>43</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>10008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10009</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>10009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10010</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>10010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10011</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>10011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10012</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10013</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>10013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10014</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10015</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
+        <v>10015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10016</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <v>10016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10017</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
+        <v>10017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10018</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
+        <v>10018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>10019</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>10019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10020</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>10021</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10022</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
+        <v>10022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>10023</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
+        <v>10023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>10024</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4">
+        <v>10024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10025</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
+        <v>10025</v>
+      </c>
+      <c r="B29" s="4">
+        <v>10026</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4">
+        <v>10026</v>
+      </c>
+      <c r="B30" s="4">
+        <v>10027</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4">
+        <v>10027</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10028</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4">
+        <v>10028</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10029</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
+        <v>10029</v>
+      </c>
+      <c r="B33" s="4">
+        <v>10030</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
+        <v>10030</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4">
+        <v>10031</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10032</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10033</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
+        <v>10033</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10034</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4">
+        <v>10034</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10035</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4">
+        <v>10035</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10036</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
+        <v>10036</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10037</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
+        <v>10037</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10038</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4">
+        <v>10038</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10039</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <v>10039</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10040</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10041</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4">
+        <v>10041</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10042</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4">
+        <v>10042</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10043</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
+        <v>10043</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10044</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4">
+        <v>10044</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10045</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4">
+        <v>10045</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10046</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4">
+        <v>10046</v>
+      </c>
+      <c r="B50" s="4">
+        <v>10047</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4">
+        <v>10047</v>
+      </c>
+      <c r="B51" s="4">
+        <v>10048</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4">
+        <v>10048</v>
+      </c>
+      <c r="B52" s="4">
+        <v>10049</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4">
+        <v>10049</v>
+      </c>
+      <c r="B53" s="4">
+        <v>10050</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B54" s="4">
+        <v>10051</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4">
+        <v>10051</v>
+      </c>
+      <c r="B55" s="4">
+        <v>10052</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4">
+        <v>10052</v>
+      </c>
+      <c r="B56" s="4">
+        <v>10053</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4">
+        <v>10053</v>
+      </c>
+      <c r="B57" s="4">
+        <v>10054</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <v>10054</v>
+      </c>
+      <c r="B58" s="4">
+        <v>10055</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
+        <v>10055</v>
+      </c>
+      <c r="B59" s="4">
+        <v>10056</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4">
+        <v>10056</v>
+      </c>
+      <c r="B60" s="4">
+        <v>10057</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4">
+        <v>10057</v>
+      </c>
+      <c r="B61" s="4">
+        <v>10058</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4">
+        <v>10058</v>
+      </c>
+      <c r="B62" s="4">
+        <v>10059</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4">
+        <v>10059</v>
+      </c>
+      <c r="B63" s="4">
+        <v>10060</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4">
+        <v>10060</v>
+      </c>
+      <c r="B64" s="4">
+        <v>10061</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4">
+        <v>10061</v>
+      </c>
+      <c r="B65" s="4">
+        <v>10062</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4">
+        <v>10062</v>
+      </c>
+      <c r="B66" s="4">
+        <v>10063</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4">
+        <v>10063</v>
+      </c>
+      <c r="B67" s="4">
+        <v>10064</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4">
+        <v>10064</v>
+      </c>
+      <c r="B68" s="4">
+        <v>10065</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4">
+        <v>10065</v>
+      </c>
+      <c r="B69" s="4">
+        <v>10066</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4">
+        <v>10066</v>
+      </c>
+      <c r="B70" s="4">
+        <v>10067</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4">
+        <v>10067</v>
+      </c>
+      <c r="B71" s="4">
+        <v>10068</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4">
+        <v>10068</v>
+      </c>
+      <c r="B72" s="4">
+        <v>10069</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4">
+        <v>10069</v>
+      </c>
+      <c r="B73" s="4">
+        <v>10070</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4">
+        <v>10070</v>
+      </c>
+      <c r="B74" s="4">
+        <v>10071</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4">
+        <v>10071</v>
+      </c>
+      <c r="B75" s="4">
+        <v>10072</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4">
+        <v>10072</v>
+      </c>
+      <c r="B76" s="4">
+        <v>10073</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="4">
+        <v>10073</v>
+      </c>
+      <c r="B77" s="4">
+        <v>10074</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="4">
+        <v>10074</v>
+      </c>
+      <c r="B78" s="4">
+        <v>10075</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4">
+        <v>10075</v>
+      </c>
+      <c r="B79" s="4">
+        <v>10076</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="4">
+        <v>10076</v>
+      </c>
+      <c r="B80" s="4">
+        <v>10077</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="4">
+        <v>10077</v>
+      </c>
+      <c r="B81" s="4">
+        <v>10078</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4">
+        <v>10078</v>
+      </c>
+      <c r="B82" s="4">
+        <v>10079</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="4">
+        <v>10079</v>
+      </c>
+      <c r="B83" s="4">
+        <v>10080</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4">
+        <v>10080</v>
+      </c>
+      <c r="B84" s="4">
+        <v>10081</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="4">
+        <v>10081</v>
+      </c>
+      <c r="B85" s="4">
+        <v>10082</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="4">
+        <v>10082</v>
+      </c>
+      <c r="B86" s="4">
+        <v>10083</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4">
+        <v>10083</v>
+      </c>
+      <c r="B87" s="4">
+        <v>10084</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="4">
+        <v>10084</v>
+      </c>
+      <c r="B88" s="4">
+        <v>10085</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="4">
+        <v>10085</v>
+      </c>
+      <c r="B89" s="4">
+        <v>10086</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="4">
+        <v>10086</v>
+      </c>
+      <c r="B90" s="4">
+        <v>10087</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="4">
+        <v>10087</v>
+      </c>
+      <c r="B91" s="4">
+        <v>10088</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4">
+        <v>10088</v>
+      </c>
+      <c r="B92" s="4">
+        <v>10089</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="4">
+        <v>10089</v>
+      </c>
+      <c r="B93" s="4">
+        <v>10090</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="4">
+        <v>10090</v>
+      </c>
+      <c r="B94" s="4">
+        <v>10091</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="4">
+        <v>10091</v>
+      </c>
+      <c r="B95" s="4">
+        <v>10092</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="4">
+        <v>10092</v>
+      </c>
+      <c r="B96" s="4">
+        <v>10093</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="4">
+        <v>10093</v>
+      </c>
+      <c r="B97" s="4">
+        <v>10094</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="4">
+        <v>10094</v>
+      </c>
+      <c r="B98" s="4">
+        <v>10095</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="4">
+        <v>10095</v>
+      </c>
+      <c r="B99" s="4">
+        <v>10096</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="4">
+        <v>10096</v>
+      </c>
+      <c r="B100" s="4">
+        <v>10097</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="4">
+        <v>10097</v>
+      </c>
+      <c r="B101" s="4">
+        <v>10098</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="4">
+        <v>10098</v>
+      </c>
+      <c r="B102" s="4">
+        <v>10099</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="4">
+        <v>10099</v>
+      </c>
+      <c r="B103" s="4">
+        <v>10100</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="4">
+        <v>10100</v>
+      </c>
+      <c r="B104" s="4">
+        <v>10101</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="4">
+        <v>10101</v>
+      </c>
+      <c r="B105" s="4">
+        <v>10102</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="4">
+        <v>10102</v>
+      </c>
+      <c r="B106" s="4">
+        <v>10103</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="4">
+        <v>10103</v>
+      </c>
+      <c r="B107" s="4">
+        <v>10104</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="4">
+        <v>10104</v>
+      </c>
+      <c r="B108" s="4">
+        <v>10105</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="4">
+        <v>10105</v>
+      </c>
+      <c r="B109" s="4">
+        <v>10106</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="4">
+        <v>10106</v>
+      </c>
+      <c r="B110" s="4">
+        <v>10107</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4">
+        <v>10107</v>
+      </c>
+      <c r="B111" s="4">
+        <v>10108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="4">
+        <v>10108</v>
+      </c>
+      <c r="B112" s="4">
+        <v>10109</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="4">
+        <v>10109</v>
+      </c>
+      <c r="B113" s="4">
+        <v>10110</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="4">
+        <v>10110</v>
+      </c>
+      <c r="B114" s="4">
+        <v>10111</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="4">
+        <v>10111</v>
+      </c>
+      <c r="B115" s="4">
+        <v>10112</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="4">
+        <v>10112</v>
+      </c>
+      <c r="B116" s="4">
+        <v>10113</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="4">
+        <v>10113</v>
+      </c>
+      <c r="B117" s="4">
+        <v>10114</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="4">
+        <v>10114</v>
+      </c>
+      <c r="B118" s="4">
+        <v>10115</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="4">
+        <v>10115</v>
+      </c>
+      <c r="B119" s="4">
+        <v>10116</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="4">
+        <v>10116</v>
+      </c>
+      <c r="B120" s="4">
+        <v>10117</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="4">
+        <v>10117</v>
+      </c>
+      <c r="B121" s="4">
+        <v>10118</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="4">
+        <v>10118</v>
+      </c>
+      <c r="B122" s="4">
+        <v>10119</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="4">
+        <v>10119</v>
+      </c>
+      <c r="B123" s="4">
+        <v>10120</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="4">
+        <v>10120</v>
+      </c>
+      <c r="B124" s="4">
+        <v>10121</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="4">
+        <v>10121</v>
+      </c>
+      <c r="B125" s="4">
+        <v>10122</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="4">
+        <v>10122</v>
+      </c>
+      <c r="B126" s="4">
+        <v>10123</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="4">
+        <v>10123</v>
+      </c>
+      <c r="B127" s="4">
+        <v>10124</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="4">
+        <v>10124</v>
+      </c>
+      <c r="B128" s="4">
+        <v>10125</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="4">
+        <v>10125</v>
+      </c>
+      <c r="B129" s="4">
+        <v>10126</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="4">
+        <v>10126</v>
+      </c>
+      <c r="B130" s="4">
+        <v>10127</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="4">
+        <v>10127</v>
+      </c>
+      <c r="B131" s="4">
+        <v>10128</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="4">
+        <v>10128</v>
+      </c>
+      <c r="B132" s="4">
+        <v>10129</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="4">
+        <v>10129</v>
+      </c>
+      <c r="B133" s="4">
+        <v>10130</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="4">
+        <v>10130</v>
+      </c>
+      <c r="B134" s="4">
+        <v>10131</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="4">
+        <v>10131</v>
+      </c>
+      <c r="B135" s="4">
+        <v>10132</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="4">
+        <v>10132</v>
+      </c>
+      <c r="B136" s="4">
+        <v>10133</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="4">
+        <v>10133</v>
+      </c>
+      <c r="B137" s="4">
+        <v>10134</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="4">
+        <v>10134</v>
+      </c>
+      <c r="B138" s="4">
+        <v>10135</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="4">
+        <v>10135</v>
+      </c>
+      <c r="B139" s="4">
+        <v>10136</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="4">
+        <v>10136</v>
+      </c>
+      <c r="B140" s="4">
+        <v>10137</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="4">
+        <v>10137</v>
+      </c>
+      <c r="B141" s="4">
+        <v>10138</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="4">
+        <v>10138</v>
+      </c>
+      <c r="B142" s="4">
+        <v>10139</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="4">
+        <v>10139</v>
+      </c>
+      <c r="B143" s="4">
+        <v>10140</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="4">
+        <v>10140</v>
+      </c>
+      <c r="B144" s="4">
+        <v>10141</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="4">
+        <v>10141</v>
+      </c>
+      <c r="B145" s="4">
+        <v>10142</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="4">
+        <v>10142</v>
+      </c>
+      <c r="B146" s="4">
+        <v>10143</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="4">
+        <v>10143</v>
+      </c>
+      <c r="B147" s="4">
+        <v>10144</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="4">
+        <v>10144</v>
+      </c>
+      <c r="B148" s="4">
+        <v>10145</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="4">
+        <v>10145</v>
+      </c>
+      <c r="B149" s="4">
+        <v>10146</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="4">
+        <v>10146</v>
+      </c>
+      <c r="B150" s="4">
+        <v>10147</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="4">
+        <v>10147</v>
+      </c>
+      <c r="B151" s="4">
+        <v>10148</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="4">
+        <v>10148</v>
+      </c>
+      <c r="B152" s="4">
+        <v>10149</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="4">
+        <v>10149</v>
+      </c>
+      <c r="B153" s="4">
+        <v>10150</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="4">
+        <v>10150</v>
+      </c>
+      <c r="B154" s="4">
+        <v>10151</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="4">
+        <v>10151</v>
+      </c>
+      <c r="B155" s="4">
+        <v>10152</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="4">
+        <v>10152</v>
+      </c>
+      <c r="B156" s="4">
+        <v>10153</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="4">
+        <v>10153</v>
+      </c>
+      <c r="B157" s="4">
+        <v>10154</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="4">
+        <v>10154</v>
+      </c>
+      <c r="B158" s="4">
+        <v>10155</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="4">
+        <v>10155</v>
+      </c>
+      <c r="B159" s="4">
+        <v>10156</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="4">
+        <v>10156</v>
+      </c>
+      <c r="B160" s="4">
+        <v>10157</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="4">
+        <v>10157</v>
+      </c>
+      <c r="B161" s="4">
+        <v>10158</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="4">
+        <v>10158</v>
+      </c>
+      <c r="B162" s="4">
+        <v>10159</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="4">
+        <v>10159</v>
+      </c>
+      <c r="B163" s="4">
+        <v>10160</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="4">
+        <v>10160</v>
+      </c>
+      <c r="B164" s="4">
+        <v>10161</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="4">
+        <v>10161</v>
+      </c>
+      <c r="B165" s="4">
+        <v>10162</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="4">
+        <v>10162</v>
+      </c>
+      <c r="B166" s="4">
+        <v>10163</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="4">
+        <v>10163</v>
+      </c>
+      <c r="B167" s="4">
+        <v>10164</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="4">
+        <v>10164</v>
+      </c>
+      <c r="B168" s="4">
+        <v>10165</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="4">
+        <v>10165</v>
+      </c>
+      <c r="B169" s="4">
+        <v>10166</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="4">
+        <v>10166</v>
+      </c>
+      <c r="B170" s="4">
+        <v>10167</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="4">
+        <v>10167</v>
+      </c>
+      <c r="B171" s="4">
+        <v>10168</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="4">
+        <v>10168</v>
+      </c>
+      <c r="B172" s="4">
+        <v>10169</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="4">
+        <v>10169</v>
+      </c>
+      <c r="B173" s="4">
+        <v>10170</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="4">
+        <v>10170</v>
+      </c>
+      <c r="B174" s="4">
+        <v>10171</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="4">
+        <v>10171</v>
+      </c>
+      <c r="B175" s="4">
+        <v>10172</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="4">
+        <v>10172</v>
+      </c>
+      <c r="B176" s="4">
+        <v>10173</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="4">
+        <v>10173</v>
+      </c>
+      <c r="B177" s="4">
+        <v>10174</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="4">
+        <v>10174</v>
+      </c>
+      <c r="B178" s="4">
+        <v>10175</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="4">
+        <v>10175</v>
+      </c>
+      <c r="B179" s="4">
+        <v>10176</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="4">
+        <v>10176</v>
+      </c>
+      <c r="B180" s="4">
+        <v>10177</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4">
+        <v>10177</v>
+      </c>
+      <c r="B181" s="4">
+        <v>10178</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="4">
+        <v>10178</v>
+      </c>
+      <c r="B182" s="4">
+        <v>10179</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="4">
+        <v>10179</v>
+      </c>
+      <c r="B183" s="4">
+        <v>10180</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="4">
+        <v>10180</v>
+      </c>
+      <c r="B184" s="4">
+        <v>10181</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="4">
+        <v>10181</v>
+      </c>
+      <c r="B185" s="4">
+        <v>10182</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="4">
+        <v>10182</v>
+      </c>
+      <c r="B186" s="4">
+        <v>10183</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="4">
+        <v>10183</v>
+      </c>
+      <c r="B187" s="4">
+        <v>10184</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="4">
+        <v>10184</v>
+      </c>
+      <c r="B188" s="4">
+        <v>10185</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="4">
+        <v>10185</v>
+      </c>
+      <c r="B189" s="4">
+        <v>10186</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="4">
+        <v>10186</v>
+      </c>
+      <c r="B190" s="4">
+        <v>10187</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="4">
+        <v>10187</v>
+      </c>
+      <c r="B191" s="4">
+        <v>10188</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="4">
+        <v>10188</v>
+      </c>
+      <c r="B192" s="4">
+        <v>10189</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="4">
+        <v>10189</v>
+      </c>
+      <c r="B193" s="4">
+        <v>10190</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="4">
+        <v>10190</v>
+      </c>
+      <c r="B194" s="4">
+        <v>10191</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="4">
+        <v>10191</v>
+      </c>
+      <c r="B195" s="4">
+        <v>10192</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="4">
+        <v>10192</v>
+      </c>
+      <c r="B196" s="4">
+        <v>10193</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="4">
+        <v>10193</v>
+      </c>
+      <c r="B197" s="4">
+        <v>10194</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="4">
+        <v>10194</v>
+      </c>
+      <c r="B198" s="4">
+        <v>10195</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
